--- a/2024 Game Day Info/Week 2_ MKE @ NY (Sat)/Game Day Packet April 13_NY v Monarchs.xlsx
+++ b/2024 Game Day Info/Week 2_ MKE @ NY (Sat)/Game Day Packet April 13_NY v Monarchs.xlsx
@@ -14,23 +14,6 @@
   <definedNames/>
   <calcPr/>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="E64">
-      <text>
-        <t xml:space="preserve">@mcale23m@mtholyoke.edu lets change this to this year's messaging, this is from last year.
-_Assigned to mcale23m@mtholyoke.edu_
-	-julie cook</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10967,17 +10950,16 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId2" ref="E7"/>
-    <hyperlink r:id="rId3" ref="E20"/>
-    <hyperlink r:id="rId4" ref="E41"/>
-    <hyperlink r:id="rId5" ref="E62"/>
-    <hyperlink r:id="rId6" ref="E66"/>
+    <hyperlink r:id="rId1" ref="E7"/>
+    <hyperlink r:id="rId2" ref="E20"/>
+    <hyperlink r:id="rId3" ref="E41"/>
+    <hyperlink r:id="rId4" ref="E62"/>
+    <hyperlink r:id="rId5" ref="E66"/>
   </hyperlinks>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId7"/>
-  <legacyDrawing r:id="rId8"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
